--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,692 +512,942 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>77.32</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7136</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7136</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>006127</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>008972</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>大成恒生综合中小型股指数C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>160922</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005707</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国港股通量化精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005379</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富价值创造定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>68.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008025</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富稳健增长混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008026</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富稳健增长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011081</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002653</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泰康沪港深精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003580</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004091</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004092</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004424</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富文体娱乐主题混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009391</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇添富优质成长混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009392</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>汇添富优质成长混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1197,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1478,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>009265</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>易方达消费精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.81</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>001605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>富兰克林国海沪港深成长精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>113.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>44.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.86</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009265</t>
+          <t>006408</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达消费精选股票</t>
+          <t>汇添富消费升级混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>45.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1360,15 +1670,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>86.79</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8832</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8194</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>39.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>83.82</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8194</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006408</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富消费升级混合</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>71.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006537</t>
+          <t>900008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恒生前海港股通精选混合</t>
+          <t>中信证券稳健回报混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006786</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数A</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006787</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康中证港股通大消费主题指数C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>900078</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>中信证券稳健回报混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1385</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>006537</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>恒生前海港股通精选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>006786</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>泰康中证港股通大消费主题指数A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001605</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>900008</t>
+          <t>006787</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合A</t>
+          <t>泰康中证港股通大消费主题指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>900078</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信证券稳健回报混合C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>87.09</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2265,4 +2266,2982 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.8283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>132.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.0450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>155.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.5603</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.5757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.5495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6712</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.2516</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0089</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6624</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006308</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6178</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006310</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>60.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.5153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1830</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9072</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8746</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8567</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>42.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4253</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>149.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3715</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3241</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2923</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2638</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2151</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1994</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1827</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1570</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0260</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9505</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9474</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>56.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>59.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9447</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9192</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7415</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>39.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6565</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6555</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6136</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5725</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5483</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4382</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006309</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3700</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3352</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008519</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008520</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中金中证沪港深优选消费50指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5244,4 +5245,3442 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>169.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.7592</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>135.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.5267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>112.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.8804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.2583</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.7368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.5088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3559</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3489</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1943</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1840</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>69.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3746</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3730</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3410</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3376</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1273</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0531</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0404</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9988</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9564</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8521</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8521</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001691</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方香港成长灵活配置混合QDII</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8105</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7459</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6694</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6614</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6569</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6321</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6069</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5260</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4787</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4585</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4440</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>44.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3829</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>44.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>50.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008978</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华长丰混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8683,4 +8684,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>89</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>129.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8692,7 +8693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8703,17 +8704,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8723,14 +8744,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>89</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83.61</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>297.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.8314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -8739,14 +8782,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>77</v>
-      </c>
-      <c r="D3" t="n">
-        <v>129.39</v>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8755,14 +8820,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.79</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>134.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8203</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8771,13 +8858,2279 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>69.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.1851</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>114.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.1393</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>115.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0449</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9935</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8366</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6516</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4613</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3967</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1900</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1900</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>42.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1336</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010483</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德启道混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0463</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9668</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>39.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8459</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7401</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5987</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4228</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4198</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3650</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2808</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>129.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11029,7 +11030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11040,17 +11041,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11060,14 +11081,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83.14</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11076,14 +11119,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>89</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.61</v>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -11092,14 +11157,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>77</v>
-      </c>
-      <c r="D4" t="n">
-        <v>129.39</v>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1691</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -11108,14 +11195,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.79</v>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -11124,13 +11233,2789 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7696</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6737</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1000</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0705</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0410</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9384</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9384</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8976</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8854</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7139</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6907</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6899</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6548</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5525</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5428</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>71.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5160</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4781</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4500</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3616</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012208</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2970</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>517550</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012209</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏港股前沿经济混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>129.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13898,7 +13899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13909,17 +13910,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13929,14 +13950,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>57.45</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -13945,14 +13988,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.14</v>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>147.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.3183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -13961,14 +14026,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>89</v>
-      </c>
-      <c r="D4" t="n">
-        <v>83.61</v>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -13977,14 +14064,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>77</v>
-      </c>
-      <c r="D5" t="n">
-        <v>129.39</v>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>131.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6600</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -13993,14 +14102,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.79</v>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -14009,13 +14140,5644 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>111.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.3401</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>143.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.2801</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.9710</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.8071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0860</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9968</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9374</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9374</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6537</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5468</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5231</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4641</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4501</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4386</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3632</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1288</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0041</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9452</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8800</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8800</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8096</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7980</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7531</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6854</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6152</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6088</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6088</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5837</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5736</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5545</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5365</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5091</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4962</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4731</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4672</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3993</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012061</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013859</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>517550</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012062</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013129</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>015086</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中欧核心消费股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013860</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>宝盈品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013130</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深消费龙头指数C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012060</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富国全球消费精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>-0.0005</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>115.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>83.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>129.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="D2" t="n">
-        <v>115.06</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D3" t="n">
-        <v>57.45</v>
+        <v>115.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>83.14</v>
+        <v>57.45</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>83.61</v>
+        <v>83.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
-        <v>129.39</v>
+        <v>83.61</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>14.79</v>
+        <v>129.39</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.66</v>
       </c>
     </row>
@@ -600,6 +617,6668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.1269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>124.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.2622</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>124.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.0093</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3512</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.1618</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.9123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.8672</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>52.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3275</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012820</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富价值领先混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6950</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6552</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012839</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4631</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3286</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3221</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2675</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2675</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2591</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0148</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9861</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9771</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9349</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9142</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8901</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8787</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8775</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8611</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7822</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7608</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国高质量混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7087</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6128</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4907</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4340</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4313</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012884</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4313</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4182</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4162</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3914</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3504</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3255</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2625</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国富估值优势混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011687</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014794</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012182</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011681</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014539</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华安优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015187</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>014795</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011688</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>易方达龙头优选两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>014540</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华安优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>012183</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>513680</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>建信港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>517760</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011682</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>015184</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合D</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6344,7 +13023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9212,7 +15891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11548,7 +18227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14986,7 +21665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17964,7 +24643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18780,7 +25459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02331-李宁.xlsx
+++ b/数据整理/stocks/港股/02331-李宁.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D2" t="n">
-        <v>99.40000000000001</v>
+        <v>113.1</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="D3" t="n">
-        <v>115.06</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>57.45</v>
+        <v>115.06</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D5" t="n">
-        <v>83.14</v>
+        <v>57.45</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>83.61</v>
+        <v>83.14</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>129.39</v>
+        <v>83.61</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n">
-        <v>14.79</v>
+        <v>129.39</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1036 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>25</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8234</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7136</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7136</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1640,6893 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H181"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4381</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达研究精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.4430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>72.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.1287</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.7323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010340</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达高质量严选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>116.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.4482</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011418</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.4106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.7016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010196</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>46.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3339</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2936</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>53.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2708</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012839</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9598</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7840</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7475</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5594</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010849</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达竞争优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5566</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5230</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012820</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富价值领先混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5129</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>43.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4660</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>169105</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红睿华沪港深混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2278</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富创新未来混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0932</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0860</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0418</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0175</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0135</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9817</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国高质量混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9602</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9295</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8455</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7864</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7404</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010197</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达核心优势股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7400</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7183</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7178</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011847</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6759</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012067</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实蓝筹优势混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5812</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5605</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5591</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5111</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011893</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011419</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富消费精选两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3942</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013552</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>69.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3615</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3517</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3226</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013553</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>69.95</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011923</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>大成消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014794</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011681</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015187</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>513070</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>易方达中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012182</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012840</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方红智华三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012075</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>015188</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合D</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014795</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>富国远见优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>513960</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>博时港股通消费ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>015162</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010870</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富稳健鑫添益六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011848</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>易方达商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>517760</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012076</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011118</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富稳健睿选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011119</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇添富稳健睿选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013889</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>天弘新华沪港深新兴消费品牌指数C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012183</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015184</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合D</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012068</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>嘉实蓝筹优势混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>012952</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇添富鑫享添利六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>015550</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>金鹰品质消费混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>012951</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇添富鑫享添利六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>59.54</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>011894</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>易方达长期价值混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011682</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇添富均衡配置个股精选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011926</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>大成消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>015549</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>金鹰品质消费混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定开混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>015163</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>景顺长城鑫景产业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>013888</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>天弘新华沪港深新兴消费品牌指数A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015715</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>富国成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7278,7 +15188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13023,7 +20933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15891,7 +23801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18227,7 +26137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21665,7 +29575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24643,7 +32553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25457,1010 +33367,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010298</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富品牌驱动六个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>75.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.8358</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005379</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富价值创造定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>95.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8234</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009391</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富优质成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>83.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5120</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004424</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富文体娱乐主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>41.86</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1888</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7136</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011081</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7136</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3647</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009392</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富优质成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3576</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3554</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002653</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康沪港深精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2913</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008025</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富稳健增长混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20.70</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1801</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008026</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富稳健增长混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>39.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0520</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003580</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004091</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005707</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富国港股通量化精选股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004092</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>